--- a/docs/RY_BPM_FS.XLSX
+++ b/docs/RY_BPM_FS.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="6000" windowWidth="29120" windowHeight="22200" tabRatio="888" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="2840" yWindow="4300" windowWidth="29120" windowHeight="24780" tabRatio="888" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文档控制" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t xml:space="preserve"> 文档更新历史</t>
   </si>
@@ -2131,35 +2131,51 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
+    <t>15.5.9</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.5.15</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.8.17</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.8.19</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.7.5</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
     <t>process-definition/{processDefinitionId}/properties</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>15.5.9</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.5.15</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.8.17</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.8.19</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.7.5</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-definition/{processDefinitionId}/properties</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>15.8.2</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>form/form-data</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>form/form-data</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>processInstanceId</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.1</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.1</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
@@ -3381,7 +3397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3444,6 +3460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3785,9 +3804,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6289,34 +6305,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -6328,11 +6344,11 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:7" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
@@ -6344,253 +6360,253 @@
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
     </row>
     <row r="33" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="2:7" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
@@ -6605,250 +6621,250 @@
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="16"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="16"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="49"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="49"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="49"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="49"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="49"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="49"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="49"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="49"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="49"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="49"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="49"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="50"/>
     </row>
     <row r="58" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="49"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="50"/>
     </row>
     <row r="59" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="49"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50"/>
     </row>
     <row r="60" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="49"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="49"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="49"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="49"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="50"/>
     </row>
     <row r="64" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="49"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="50"/>
     </row>
     <row r="65" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="49"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="50"/>
     </row>
     <row r="66" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="49"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="50"/>
     </row>
     <row r="67" spans="2:7" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="52"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="9"/>
@@ -6954,34 +6970,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -7026,34 +7042,34 @@
   <sheetData>
     <row r="1" spans="2:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:14" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:14" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -7065,303 +7081,303 @@
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99" t="s">
+      <c r="L16" s="100"/>
+      <c r="M16" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="100"/>
+      <c r="N16" s="101"/>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102" t="s">
+      <c r="J17" s="103"/>
+      <c r="K17" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102" t="s">
+      <c r="L17" s="103"/>
+      <c r="M17" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="103"/>
+      <c r="N17" s="104"/>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102" t="s">
+      <c r="J18" s="103"/>
+      <c r="K18" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102" t="s">
+      <c r="L18" s="103"/>
+      <c r="M18" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="103"/>
+      <c r="N18" s="104"/>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102" t="s">
+      <c r="L19" s="103"/>
+      <c r="M19" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="103"/>
+      <c r="N19" s="104"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102" t="s">
+      <c r="J20" s="103"/>
+      <c r="K20" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102" t="s">
+      <c r="L20" s="103"/>
+      <c r="M20" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="103"/>
+      <c r="N20" s="104"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="104"/>
     </row>
     <row r="22" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="107"/>
     </row>
     <row r="44" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63" t="s">
+      <c r="I45" s="63"/>
+      <c r="J45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63" t="s">
+      <c r="K45" s="63"/>
+      <c r="L45" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="66"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="69"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68" t="s">
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68" t="s">
+      <c r="I46" s="68"/>
+      <c r="J46" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="70" t="s">
+      <c r="K46" s="68"/>
+      <c r="L46" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="73"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="85" t="s">
+      <c r="C47" s="83"/>
+      <c r="D47" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="73" t="s">
+      <c r="F47" s="89"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="73" t="s">
+      <c r="I47" s="68"/>
+      <c r="J47" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="70" t="s">
+      <c r="K47" s="68"/>
+      <c r="L47" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="73"/>
       <c r="Q47" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="73" t="s">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68" t="s">
+      <c r="I48" s="68"/>
+      <c r="J48" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="70" t="s">
+      <c r="K48" s="68"/>
+      <c r="L48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="73"/>
     </row>
     <row r="49" spans="2:17" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="75"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="76" t="s">
+      <c r="F49" s="78"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="75"/>
-      <c r="J49" s="76" t="s">
+      <c r="I49" s="76"/>
+      <c r="J49" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="75"/>
-      <c r="L49" s="78" t="s">
+      <c r="K49" s="76"/>
+      <c r="L49" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="81"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="67"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="73" t="s">
+      <c r="F50" s="70"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="67"/>
-      <c r="J50" s="73" t="s">
+      <c r="I50" s="68"/>
+      <c r="J50" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="70" t="s">
+      <c r="K50" s="68"/>
+      <c r="L50" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="73"/>
       <c r="Q50" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="73"/>
     </row>
     <row r="52" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="97"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -7456,34 +7472,34 @@
   <sheetData>
     <row r="1" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:13" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="116.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -7495,171 +7511,171 @@
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99" t="s">
+      <c r="I13" s="100"/>
+      <c r="J13" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99" t="s">
+      <c r="K13" s="100"/>
+      <c r="L13" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="100"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="I14" s="103"/>
+      <c r="J14" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102" t="s">
+      <c r="K14" s="103"/>
+      <c r="L14" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102" t="s">
+      <c r="I15" s="103"/>
+      <c r="J15" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102" t="s">
+      <c r="K15" s="103"/>
+      <c r="L15" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="103"/>
+      <c r="M15" s="104"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102" t="s">
+      <c r="K16" s="103"/>
+      <c r="L16" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="103"/>
+      <c r="M16" s="104"/>
     </row>
     <row r="44" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63" t="s">
+      <c r="I45" s="63"/>
+      <c r="J45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63" t="s">
+      <c r="K45" s="63"/>
+      <c r="L45" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="66"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="73" t="s">
+      <c r="E46" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="69"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="73" t="s">
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="73" t="s">
+      <c r="I46" s="68"/>
+      <c r="J46" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="70" t="s">
+      <c r="K46" s="68"/>
+      <c r="L46" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="73"/>
       <c r="Q46" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="73" t="s">
+      <c r="F47" s="70"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="73" t="s">
+      <c r="I47" s="68"/>
+      <c r="J47" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="70" t="s">
+      <c r="K47" s="68"/>
+      <c r="L47" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="73"/>
       <c r="Q47" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="91"/>
-      <c r="C48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="97"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -7726,34 +7742,34 @@
   <sheetData>
     <row r="1" spans="2:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:18" ht="122.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -7765,219 +7781,219 @@
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="M14" s="98" t="s">
+      <c r="M14" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99" t="s">
+      <c r="N14" s="100"/>
+      <c r="O14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99" t="s">
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="100"/>
+      <c r="R14" s="101"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="M15" s="101" t="s">
+      <c r="M15" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102" t="s">
+      <c r="N15" s="103"/>
+      <c r="O15" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102" t="s">
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="103"/>
+      <c r="R15" s="104"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="M16" s="101" t="s">
+      <c r="M16" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102" t="s">
+      <c r="N16" s="103"/>
+      <c r="O16" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102" t="s">
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="103"/>
+      <c r="R16" s="104"/>
     </row>
     <row r="17" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M17" s="101" t="s">
+      <c r="M17" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102" t="s">
+      <c r="N17" s="103"/>
+      <c r="O17" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102" t="s">
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="103"/>
+      <c r="R17" s="104"/>
     </row>
     <row r="44" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63" t="s">
+      <c r="I45" s="63"/>
+      <c r="J45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63" t="s">
+      <c r="K45" s="63"/>
+      <c r="L45" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="66"/>
     </row>
     <row r="46" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="76" t="s">
+      <c r="E46" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="78"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="75"/>
-      <c r="J46" s="76" t="s">
+      <c r="I46" s="76"/>
+      <c r="J46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="75"/>
-      <c r="L46" s="108" t="s">
+      <c r="K46" s="76"/>
+      <c r="L46" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="111"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68" t="s">
+      <c r="F47" s="70"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68" t="s">
+      <c r="I47" s="68"/>
+      <c r="J47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="111" t="s">
+      <c r="K47" s="68"/>
+      <c r="L47" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="114"/>
       <c r="R47" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="E48" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="76" t="s">
+      <c r="F48" s="78"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="75"/>
-      <c r="J48" s="76" t="s">
+      <c r="I48" s="76"/>
+      <c r="J48" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="75"/>
-      <c r="L48" s="111" t="s">
+      <c r="K48" s="76"/>
+      <c r="L48" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="114"/>
       <c r="R48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="114" t="s">
+      <c r="F49" s="95"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="92"/>
-      <c r="J49" s="114" t="s">
+      <c r="I49" s="93"/>
+      <c r="J49" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="92"/>
-      <c r="L49" s="115" t="s">
+      <c r="K49" s="93"/>
+      <c r="L49" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="M49" s="116"/>
-      <c r="N49" s="116"/>
-      <c r="O49" s="116"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="118"/>
       <c r="R49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8035,7 +8051,7 @@
   <dimension ref="B1:S46"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
@@ -8050,34 +8066,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="148" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -8089,159 +8105,159 @@
     </row>
     <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N17" s="98" t="s">
+      <c r="N17" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99" t="s">
+      <c r="O17" s="100"/>
+      <c r="P17" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99" t="s">
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="100"/>
+      <c r="S17" s="101"/>
     </row>
     <row r="18" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N18" s="101" t="s">
+      <c r="N18" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102" t="s">
+      <c r="O18" s="103"/>
+      <c r="P18" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102" t="s">
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="S18" s="103"/>
+      <c r="S18" s="104"/>
     </row>
     <row r="19" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N19" s="101" t="s">
+      <c r="N19" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102" t="s">
+      <c r="O19" s="103"/>
+      <c r="P19" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102" t="s">
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="S19" s="103"/>
+      <c r="S19" s="104"/>
     </row>
     <row r="20" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N20" s="101" t="s">
+      <c r="N20" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102" t="s">
+      <c r="O20" s="103"/>
+      <c r="P20" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102" t="s">
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="S20" s="103"/>
+      <c r="S20" s="104"/>
     </row>
     <row r="21" spans="14:19" x14ac:dyDescent="0.15">
-      <c r="N21" s="101" t="s">
+      <c r="N21" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102" t="s">
+      <c r="O21" s="103"/>
+      <c r="P21" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102" t="s">
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="S21" s="103"/>
+      <c r="S21" s="104"/>
     </row>
     <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63" t="s">
+      <c r="F44" s="65"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63" t="s">
+      <c r="I44" s="63"/>
+      <c r="J44" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="62"/>
-      <c r="L44" s="63" t="s">
+      <c r="K44" s="63"/>
+      <c r="L44" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="66"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="85" t="s">
+      <c r="C45" s="83"/>
+      <c r="D45" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="73" t="s">
+      <c r="F45" s="89"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="73" t="s">
+      <c r="I45" s="68"/>
+      <c r="J45" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="70" t="s">
+      <c r="K45" s="68"/>
+      <c r="L45" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="73"/>
       <c r="Q45" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="73" t="s">
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68" t="s">
+      <c r="I46" s="68"/>
+      <c r="J46" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="70" t="s">
+      <c r="K46" s="68"/>
+      <c r="L46" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -8289,9 +8305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8305,34 +8321,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -8344,201 +8360,204 @@
     </row>
     <row r="82" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="62"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="63" t="s">
+      <c r="F83" s="65"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63" t="s">
+      <c r="I83" s="63"/>
+      <c r="J83" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="62"/>
-      <c r="L83" s="63" t="s">
+      <c r="K83" s="63"/>
+      <c r="L83" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
-      <c r="R83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="66"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="75"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="107" t="s">
+      <c r="E84" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="77"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="76" t="s">
+      <c r="F84" s="78"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="75"/>
-      <c r="J84" s="76" t="s">
+      <c r="I84" s="76"/>
+      <c r="J84" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="K84" s="75"/>
-      <c r="L84" s="108" t="s">
+      <c r="K84" s="76"/>
+      <c r="L84" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="M84" s="109"/>
-      <c r="N84" s="109"/>
-      <c r="O84" s="109"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="109"/>
-      <c r="R84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
+      <c r="R84" s="111"/>
       <c r="S84" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B85" s="74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="75"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" s="77"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="I85" s="75"/>
-      <c r="J85" s="76" t="s">
+      <c r="E85" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" s="78"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="76"/>
+      <c r="J85" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="K85" s="75"/>
-      <c r="L85" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109"/>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
-      <c r="R85" s="110"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="111"/>
       <c r="S85" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="75"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="107" t="s">
+      <c r="E86" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="77"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="76" t="s">
+      <c r="F86" s="78"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I86" s="75"/>
-      <c r="J86" s="76" t="s">
+      <c r="I86" s="76"/>
+      <c r="J86" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K86" s="75"/>
-      <c r="L86" s="108" t="s">
+      <c r="K86" s="76"/>
+      <c r="L86" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="M86" s="109"/>
-      <c r="N86" s="109"/>
-      <c r="O86" s="109"/>
-      <c r="P86" s="109"/>
-      <c r="Q86" s="109"/>
-      <c r="R86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110"/>
+      <c r="O86" s="110"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="111"/>
       <c r="S86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="75"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" s="75"/>
-      <c r="J87" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="K87" s="75"/>
-      <c r="L87" s="108" t="s">
+      <c r="E87" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="78"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I87" s="76"/>
+      <c r="J87" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="K87" s="76"/>
+      <c r="L87" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="M87" s="109"/>
-      <c r="N87" s="109"/>
-      <c r="O87" s="109"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="109"/>
-      <c r="R87" s="110"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="110"/>
+      <c r="O87" s="110"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="75"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="107" t="s">
+      <c r="E88" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="F88" s="77"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="76" t="s">
+      <c r="F88" s="78"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="I88" s="75"/>
-      <c r="J88" s="76" t="s">
+      <c r="I88" s="76"/>
+      <c r="J88" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="K88" s="75"/>
-      <c r="L88" s="108" t="s">
+      <c r="K88" s="76"/>
+      <c r="L88" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="M88" s="109"/>
-      <c r="N88" s="109"/>
-      <c r="O88" s="109"/>
-      <c r="P88" s="109"/>
-      <c r="Q88" s="109"/>
-      <c r="R88" s="110"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="110"/>
+      <c r="O88" s="110"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="111"/>
       <c r="S88" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8589,7 +8608,7 @@
   <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
@@ -8604,34 +8623,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -8653,68 +8672,68 @@
     </row>
     <row r="45" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63" t="s">
+      <c r="F46" s="65"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="62"/>
-      <c r="J46" s="63" t="s">
+      <c r="I46" s="63"/>
+      <c r="J46" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="63" t="s">
+      <c r="K46" s="63"/>
+      <c r="L46" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="66"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="76" t="s">
+      <c r="F47" s="78"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="I47" s="75"/>
-      <c r="J47" s="76" t="s">
+      <c r="I47" s="76"/>
+      <c r="J47" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="K47" s="75"/>
-      <c r="L47" s="108" t="s">
+      <c r="K47" s="76"/>
+      <c r="L47" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="111"/>
       <c r="S47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8742,11 +8761,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8760,34 +8779,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -8797,11 +8816,126 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
+    <row r="44" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B45" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="63"/>
+      <c r="J45" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="66"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B46" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="78"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="76"/>
+      <c r="J46" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="76"/>
+      <c r="L46" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B47" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="78"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="76"/>
+      <c r="J47" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="76"/>
+      <c r="L47" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:R47"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
